--- a/hiqu/HR/Performance Evaluation/December 2024/QA/Kashif Hayat.xlsx
+++ b/hiqu/HR/Performance Evaluation/December 2024/QA/Kashif Hayat.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\December 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5B9EA-51DF-44C2-801A-120B0018C9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E02F7D-4121-4E58-A467-39160F8FB632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
     <sheet name="Consolidated" sheetId="1" r:id="rId3"/>
-    <sheet name="November 2024" sheetId="6" r:id="rId4"/>
-    <sheet name="October 2024" sheetId="4" r:id="rId5"/>
-    <sheet name="September 2024" sheetId="5" r:id="rId6"/>
+    <sheet name="December 2024" sheetId="7" r:id="rId4"/>
+    <sheet name="November 2024" sheetId="6" r:id="rId5"/>
+    <sheet name="October 2024" sheetId="4" r:id="rId6"/>
+    <sheet name="September 2024" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="134">
   <si>
     <t>Employee Name</t>
   </si>
@@ -428,6 +429,21 @@
   </si>
   <si>
     <t>Training</t>
+  </si>
+  <si>
+    <t>Approval routing</t>
+  </si>
+  <si>
+    <t>Production: Project should be available on summary as well.</t>
+  </si>
+  <si>
+    <t>Production: show keyvalue pairs for level2 mapping</t>
+  </si>
+  <si>
+    <t>Apply variable name for Site in vendor mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APWORKS 2024.2 PHASE 5          </t>
   </si>
 </sst>
 </file>
@@ -3008,7 +3024,7 @@
       </c>
       <c r="C10" s="40">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.3671232876712329</v>
+        <v>1.4986301369863013</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -3737,6 +3753,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{4AE35B5D-1B4E-4AE6-AA0D-A30ED6749052}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{08925B67-2292-4D7B-8054-48F5B55E9BB0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D22">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B18D98D-A4CA-407E-A3C9-34806D3D52B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A474C045-4B92-445F-9064-DFFDC9DEA28B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3825,48 +3883,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08925B67-2292-4D7B-8054-48F5B55E9BB0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3B18D98D-A4CA-407E-A3C9-34806D3D52B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A474C045-4B92-445F-9064-DFFDC9DEA28B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3915,6 +3931,51 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{08925B67-2292-4D7B-8054-48F5B55E9BB0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B18D98D-A4CA-407E-A3C9-34806D3D52B3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A474C045-4B92-445F-9064-DFFDC9DEA28B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C359AD0E-DF64-4755-BA16-ACC0D39A79D1}">
@@ -4006,51 +4067,6 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08925B67-2292-4D7B-8054-48F5B55E9BB0}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3B18D98D-A4CA-407E-A3C9-34806D3D52B3}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A474C045-4B92-445F-9064-DFFDC9DEA28B}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="5" tint="0.39997558519241921"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24:D31</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4059,13 +4075,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:X43"/>
+  <dimension ref="B2:X50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4312,7 +4328,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="37">
-        <f t="shared" ref="P9:P41" si="0">IF(N9&gt;0,N9-O9,0)</f>
+        <f t="shared" ref="P9:P48" si="0">IF(N9&gt;0,N9-O9,0)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="2"/>
@@ -4350,7 +4366,7 @@
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="28">
-        <f t="shared" ref="R10:R41" si="1">D10+E10+F10+G10+H10+I10+J10+K10+L10+O10</f>
+        <f t="shared" ref="R10:R48" si="1">D10+E10+F10+G10+H10+I10+J10+K10+L10+O10</f>
         <v>0</v>
       </c>
       <c r="S10" s="2"/>
@@ -4371,7 +4387,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -4386,7 +4402,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="28">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="6"/>
@@ -4448,7 +4464,7 @@
       <c r="N13" s="2">
         <v>8</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="36">
         <v>48</v>
       </c>
       <c r="P13" s="37">
@@ -4489,7 +4505,7 @@
       <c r="N14" s="2">
         <v>8</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="36">
         <v>37</v>
       </c>
       <c r="P14" s="37">
@@ -4596,7 +4612,7 @@
       <c r="N17" s="2">
         <v>6</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="36">
         <v>31</v>
       </c>
       <c r="P17" s="37">
@@ -4754,9 +4770,9 @@
       <c r="X21" s="6"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4766,23 +4782,15 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2">
-        <v>6</v>
-      </c>
-      <c r="P22" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="37"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="28">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="R22" s="28"/>
       <c r="S22" s="2"/>
       <c r="T22" s="6"/>
       <c r="U22" s="2"/>
@@ -4791,9 +4799,9 @@
       <c r="X22" s="6"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4802,22 +4810,16 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>2</v>
-      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O23" s="2">
+        <v>8</v>
+      </c>
+      <c r="P23" s="37"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="28">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="R23" s="28"/>
       <c r="S23" s="2"/>
       <c r="T23" s="6"/>
       <c r="U23" s="2"/>
@@ -4826,9 +4828,9 @@
       <c r="X23" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4837,22 +4839,16 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>4</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="37"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="R24" s="28"/>
       <c r="S24" s="2"/>
       <c r="T24" s="6"/>
       <c r="U24" s="2"/>
@@ -4861,9 +4857,9 @@
       <c r="X24" s="6"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4872,12 +4868,14 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>4</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P25" s="37">
         <f t="shared" si="0"/>
@@ -4886,7 +4884,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="28">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="6"/>
@@ -4896,9 +4894,9 @@
       <c r="X25" s="6"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4907,23 +4905,23 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>2</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2">
-        <v>4</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="6"/>
@@ -4933,10 +4931,10 @@
       <c r="X26" s="6"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="1"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4948,7 +4946,9 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
       <c r="P27" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4956,7 +4956,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="6"/>
@@ -4968,7 +4968,7 @@
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4982,7 +4982,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P28" s="37">
         <f t="shared" si="0"/>
@@ -4991,7 +4991,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="28">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="6"/>
@@ -5001,15 +5001,13 @@
       <c r="X28" s="6"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>13</v>
-      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -5017,16 +5015,20 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" s="2">
+        <v>4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>9</v>
+      </c>
       <c r="P29" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="28">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="6"/>
@@ -5036,36 +5038,29 @@
       <c r="X29" s="6"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <v>19</v>
-      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2">
-        <v>11</v>
-      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2">
-        <v>30</v>
-      </c>
-      <c r="P30" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P30" s="37"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="28">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="6"/>
@@ -5075,32 +5070,29 @@
       <c r="X30" s="6"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <v>15</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O31" s="2">
+        <v>2</v>
+      </c>
+      <c r="P31" s="37"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="28">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="6"/>
@@ -5110,10 +5102,10 @@
       <c r="X31" s="6"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="B32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -5125,19 +5117,10 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2">
-        <f>48+35</f>
-        <v>83</v>
-      </c>
-      <c r="P32" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="37"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="28">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
+      <c r="R32" s="28"/>
       <c r="S32" s="2"/>
       <c r="T32" s="6"/>
       <c r="U32" s="2"/>
@@ -5146,9 +5129,9 @@
       <c r="X32" s="6"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5157,22 +5140,16 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="36">
+        <v>80</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2">
-        <v>29</v>
-      </c>
-      <c r="P33" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="37"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="28">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
+      <c r="R33" s="28"/>
       <c r="S33" s="2"/>
       <c r="T33" s="6"/>
       <c r="U33" s="2"/>
@@ -5182,7 +5159,7 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -5216,22 +5193,24 @@
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="2">
+        <v>11</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" s="2">
+        <v>8</v>
+      </c>
       <c r="P35" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5239,7 +5218,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="6"/>
@@ -5251,7 +5230,7 @@
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5260,13 +5239,13 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2">
-        <v>2</v>
-      </c>
+      <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="2">
+        <v>13</v>
+      </c>
       <c r="P36" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5274,7 +5253,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="6"/>
@@ -5286,13 +5265,13 @@
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>19</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -5301,7 +5280,9 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" s="2">
+        <v>30</v>
+      </c>
       <c r="P37" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5309,7 +5290,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="6"/>
@@ -5321,16 +5302,16 @@
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="I38" s="2">
+        <v>15</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -5344,7 +5325,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="6"/>
@@ -5356,7 +5337,7 @@
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5370,7 +5351,8 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2">
-        <v>4</v>
+        <f>48+35</f>
+        <v>83</v>
       </c>
       <c r="P39" s="37">
         <f t="shared" si="0"/>
@@ -5379,7 +5361,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="6"/>
@@ -5389,8 +5371,10 @@
       <c r="X39" s="6"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -5402,7 +5386,9 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" s="2">
+        <v>29</v>
+      </c>
       <c r="P40" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5410,7 +5396,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="6"/>
@@ -5420,7 +5406,9 @@
       <c r="X40" s="6"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -5450,82 +5438,319 @@
       <c r="W41" s="2"/>
       <c r="X41" s="6"/>
     </row>
-    <row r="42" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
+        <v>2</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="6"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="6"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="6"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2">
+        <v>4</v>
+      </c>
+      <c r="P46" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="6"/>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="6"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="27"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11">
-        <f>SUM(D8:D40)</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11">
-        <f t="shared" ref="F42:L42" si="2">SUM(F8:F40)</f>
-        <v>50</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="C49" s="10"/>
+      <c r="D49" s="11">
+        <f>SUM(D8:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11">
+        <f t="shared" ref="F49:L49" si="2">SUM(F8:F47)</f>
+        <v>37</v>
+      </c>
+      <c r="G49" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H49" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I49" s="11">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="J42" s="11">
+        <v>54</v>
+      </c>
+      <c r="J49" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K49" s="11">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="L42" s="11">
+        <v>126</v>
+      </c>
+      <c r="L49" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <f>SUM(N8:N41)</f>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11">
+        <f>SUM(N8:N48)</f>
         <v>26</v>
       </c>
-      <c r="O42" s="11">
-        <f>SUM(O8:O41)</f>
-        <v>305</v>
-      </c>
-      <c r="P42" s="38">
-        <f>N42-O42</f>
-        <v>-279</v>
-      </c>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11">
-        <f>SUM(R8:R41)</f>
-        <v>427</v>
-      </c>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11">
-        <f>SUM(U8:U41)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="11">
-        <f>SUM(V8:V41)</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="11">
-        <f>SUM(W8:W41)</f>
-        <v>0</v>
-      </c>
-      <c r="X42" s="11">
-        <f>SUM(X8:X41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="O49" s="11">
+        <f>SUM(O8:O48)</f>
+        <v>348</v>
+      </c>
+      <c r="P49" s="38">
+        <f>N49-O49</f>
+        <v>-322</v>
+      </c>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11">
+        <f>SUM(R8:R48)</f>
+        <v>469</v>
+      </c>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11">
+        <f>SUM(U8:U48)</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="11">
+        <f>SUM(V8:V48)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="11">
+        <f>SUM(W8:W48)</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="11">
+        <f>SUM(X8:X48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:X2"/>
@@ -5542,11 +5767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2839ED1B-9A19-4E94-ABB1-6AEF756CEAB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02615309-1B50-47A6-B347-C0B4A979280C}">
   <dimension ref="B2:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5738,7 +5963,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="2"/>
@@ -5765,17 +5990,17 @@
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>8</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5787,7 +6012,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="28">
         <f>D9+E9+F9+G9+H9+I9+J9+K9+N9</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="6"/>
@@ -5798,7 +6023,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -5831,17 +6056,17 @@
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>24</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -5850,7 +6075,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="28">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="6"/>
@@ -5860,10 +6085,10 @@
       <c r="W11" s="6"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5874,12 +6099,14 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2">
+        <v>8</v>
+      </c>
       <c r="O12" s="35"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
@@ -5891,7 +6118,7 @@
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5899,13 +6126,13 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>4</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2">
-        <v>4</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="35"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="28">
@@ -5922,7 +6149,7 @@
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5935,13 +6162,13 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="6"/>
@@ -5953,7 +6180,7 @@
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5966,13 +6193,13 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="6"/>
@@ -5984,7 +6211,7 @@
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5997,13 +6224,13 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="6"/>
@@ -6015,7 +6242,7 @@
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6028,13 +6255,13 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="6"/>
@@ -6046,7 +6273,7 @@
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6059,13 +6286,13 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="6"/>
@@ -6075,19 +6302,17 @@
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -6096,7 +6321,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="6"/>
@@ -6106,17 +6331,19 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>80</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -6125,7 +6352,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="6"/>
@@ -6136,29 +6363,23 @@
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
-      <c r="C21" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>4</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2">
-        <v>6</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="35"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="28">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="6"/>
@@ -6169,18 +6390,14 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
-      <c r="C22" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -6189,7 +6406,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="6"/>
@@ -6200,9 +6417,7 @@
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
-      <c r="C23" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6213,14 +6428,12 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="35"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="6"/>
@@ -6231,9 +6444,7 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
-      <c r="C24" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -6244,14 +6455,12 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2">
-        <v>12</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="35"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="28">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="6"/>
@@ -6262,9 +6471,7 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
-      <c r="C25" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -6275,14 +6482,12 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2">
-        <v>3</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="35"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="6"/>
@@ -6292,9 +6497,7 @@
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -6322,9 +6525,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
-      <c r="C27" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -6335,14 +6536,12 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2">
-        <v>23</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="35"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="28">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="6"/>
@@ -6353,9 +6552,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
-      <c r="C28" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -6366,14 +6563,12 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2">
-        <v>16</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="35"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="28">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="6"/>
@@ -6383,9 +6578,7 @@
       <c r="W28" s="6"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -6413,13 +6606,9 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -6433,7 +6622,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="6"/>
@@ -6444,18 +6633,14 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2">
-        <v>2</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -6464,7 +6649,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="6"/>
@@ -6475,13 +6660,9 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -6495,7 +6676,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="6"/>
@@ -6506,13 +6687,9 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -6526,7 +6703,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="6"/>
@@ -6537,9 +6714,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -6550,14 +6725,12 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="2">
-        <v>4</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="35"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="6"/>
@@ -6628,7 +6801,7 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="2"/>
@@ -6640,7 +6813,7 @@
       </c>
       <c r="H37" s="11">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="2"/>
@@ -6648,7 +6821,7 @@
       </c>
       <c r="J37" s="11">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" si="2"/>
@@ -6661,7 +6834,7 @@
       </c>
       <c r="N37" s="11">
         <f>SUM(N8:N36)</f>
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="O37" s="12">
         <f t="shared" ref="O37" si="3">IF(M37=0,0,(N37-M37)/M37)</f>
@@ -6670,7 +6843,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11">
         <f>SUM(Q8:Q36)</f>
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
@@ -6708,6 +6881,1172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2839ED1B-9A19-4E94-ABB1-6AEF756CEAB8}">
+  <dimension ref="B2:W38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="2.28515625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="5" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="5"/>
+    <col min="23" max="23" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+      <c r="Q6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="9"/>
+      <c r="T6" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="M7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="35">
+        <f t="shared" ref="O9:O10" si="0">IF(M9=0,0,(N9-M9)/M9)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="28">
+        <f>D9+E9+F9+G9+H9+I9+J9+K9+N9</f>
+        <v>8</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="28">
+        <f t="shared" ref="Q10:Q35" si="1">D10+E10+F10+G10+H10+I10+J10+K10+N10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="28">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>4</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>6</v>
+      </c>
+      <c r="O15" s="35"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>6</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>12</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="28">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <v>3</v>
+      </c>
+      <c r="O25" s="35"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <v>23</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="28">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <v>16</v>
+      </c>
+      <c r="O28" s="35"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="28">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <v>4</v>
+      </c>
+      <c r="O34" s="35"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="27"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11">
+        <f t="shared" ref="D37:K37" si="2">SUM(D8:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11">
+        <f>SUM(M8:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <f>SUM(N8:N36)</f>
+        <v>84</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" ref="O37" si="3">IF(M37=0,0,(N37-M37)/M37)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11">
+        <f>SUM(Q8:Q36)</f>
+        <v>114</v>
+      </c>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11">
+        <f>SUM(T8:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="11">
+        <f>SUM(U8:U36)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="11">
+        <f>SUM(V8:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="11">
+        <f>SUM(W8:W36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="T6:W6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE3F59F-986B-4B98-815D-6AEB58684362}">
   <dimension ref="B2:W23"/>
   <sheetViews>
@@ -7418,7 +8757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44333CF5-12CD-4F68-96BC-A1A09EAF912B}">
   <dimension ref="B2:W28"/>
   <sheetViews>
